--- a/VT_REG1_IND_V09.xlsx
+++ b/VT_REG1_IND_V09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29436254-AD2E-4EA4-B8A6-95A2B4C7A957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4962FEE4-E307-4223-8C97-663859459110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" tabRatio="901"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -27,12 +27,15 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD8" authorId="0" shapeId="0">
+    <comment ref="AD8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,14 +79,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -500,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -563,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -811,14 +814,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -932,7 +935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -958,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1084,7 +1087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1117,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0">
+    <comment ref="S10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0">
+    <comment ref="L11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1546,7 +1549,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="176">
   <si>
     <t>CommName</t>
   </si>
@@ -2053,18 +2056,39 @@
   </si>
   <si>
     <t>Lifetime</t>
+  </si>
+  <si>
+    <t>INDHFO</t>
+  </si>
+  <si>
+    <t>INDCH4</t>
+  </si>
+  <si>
+    <t>Industry Heavy Fuel Oil</t>
+  </si>
+  <si>
+    <t>Industry CH4</t>
+  </si>
+  <si>
+    <t>FTE-INDHFO</t>
+  </si>
+  <si>
+    <t>Sector Fuel Technology Existing Industry Heavy Fuel Oil</t>
+  </si>
+  <si>
+    <t>PJa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2072,6 +2096,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2094,32 +2119,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2172,6 +2171,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2573,34 +2573,34 @@
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2614,23 +2614,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2639,15 +2639,15 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
@@ -2662,97 +2662,97 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="23" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="21" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="9" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="9" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
@@ -2763,15 +2763,15 @@
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2781,8 +2781,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2790,16 +2790,16 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -2809,10 +2809,10 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="9" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2821,83 +2821,89 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1"/>
-    <xf numFmtId="9" fontId="18" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="6"/>
-    <xf numFmtId="9" fontId="22" fillId="8" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="6"/>
+    <xf numFmtId="9" fontId="18" fillId="8" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="13" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="17"/>
-    <cellStyle name="Percent 3" xfId="18"/>
-    <cellStyle name="Percent 3 2" xfId="19"/>
-    <cellStyle name="Percent 3 3" xfId="20"/>
-    <cellStyle name="Percent 4" xfId="21"/>
-    <cellStyle name="Percent 4 2" xfId="22"/>
-    <cellStyle name="Percent 4 3" xfId="23"/>
-    <cellStyle name="Percent 5" xfId="24"/>
-    <cellStyle name="Percent 6" xfId="25"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="26"/>
+    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 6" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3304,13 +3310,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>3811972</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3844,6 +3850,11 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
+        <row r="10">
+          <cell r="D10">
+            <v>-37.464700000000001</v>
+          </cell>
+        </row>
         <row r="16">
           <cell r="D16">
             <v>231.76075</v>
@@ -4623,34 +4634,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="21" width="10.88671875" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="45" width="10.85546875" customWidth="1"/>
+    <col min="29" max="29" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="45" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X1" s="26" t="s">
         <v>94</v>
       </c>
@@ -4664,7 +4675,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
       <c r="D2" s="50" t="s">
         <v>44</v>
@@ -4780,7 +4791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" ht="39.6" x14ac:dyDescent="0.25">
       <c r="C3" s="85" t="s">
         <v>125</v>
       </c>
@@ -4891,7 +4902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B4" s="48"/>
       <c r="C4" s="103" t="s">
         <v>59</v>
@@ -4937,7 +4948,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="52" t="s">
         <v>60</v>
@@ -5073,7 +5084,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="52" t="s">
         <v>62</v>
@@ -5209,7 +5220,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="52" t="s">
         <v>64</v>
@@ -5346,7 +5357,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="52" t="s">
         <v>66</v>
@@ -5482,7 +5493,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="52" t="s">
         <v>68</v>
@@ -5618,7 +5629,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="52" t="s">
         <v>70</v>
@@ -5754,7 +5765,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="52" t="s">
         <v>87</v>
@@ -5890,7 +5901,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="52" t="s">
         <v>88</v>
@@ -6026,7 +6037,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="102" t="s">
         <v>90</v>
@@ -6118,7 +6129,7 @@
       <c r="AR13" s="72"/>
       <c r="AS13" s="73"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="D14" s="10"/>
       <c r="F14" s="10"/>
@@ -6130,7 +6141,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="D15" s="10"/>
       <c r="F15" s="10"/>
@@ -6142,7 +6153,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="C16" s="55" t="s">
         <v>147</v>
@@ -6158,7 +6169,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
@@ -6170,12 +6181,12 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
     </row>
-    <row r="19" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="29" t="s">
         <v>102</v>
@@ -6241,7 +6252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="116" t="s">
         <v>64</v>
@@ -6275,15 +6286,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="V21" s="7"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="V22" s="7"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="C23" s="67" t="s">
         <v>107</v>
@@ -6296,7 +6307,7 @@
       </c>
       <c r="V23" s="7"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="26" t="s">
         <v>117</v>
@@ -6312,7 +6323,7 @@
       </c>
       <c r="V24" s="7"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="52" t="s">
         <v>64</v>
@@ -6331,26 +6342,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="4" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="94" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E4" s="119"/>
       <c r="F4" s="119"/>
       <c r="G4" s="119"/>
@@ -6358,7 +6369,7 @@
       <c r="I4" s="119"/>
       <c r="J4" s="119"/>
     </row>
-    <row r="5" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="95" t="s">
         <v>159</v>
       </c>
@@ -6376,36 +6387,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="63" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>75</v>
       </c>
@@ -6426,7 +6437,7 @@
       </c>
       <c r="H1" s="41"/>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="str">
         <f>'EB1'!B7</f>
         <v>IND</v>
@@ -6462,7 +6473,7 @@
       <c r="Q2" s="142"/>
       <c r="R2" s="142"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J3" s="143" t="s">
         <v>7</v>
       </c>
@@ -6491,7 +6502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="5" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="5" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6525,7 +6536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -6554,7 +6565,7 @@
       <c r="Q5" s="146"/>
       <c r="R5" s="146"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -6581,7 +6592,7 @@
       <c r="Q6" s="146"/>
       <c r="R6" s="146"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -6608,7 +6619,7 @@
       <c r="Q7" s="146"/>
       <c r="R7" s="146"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -6635,7 +6646,7 @@
       <c r="Q8" s="146"/>
       <c r="R8" s="146"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -6662,7 +6673,7 @@
       <c r="Q9" s="146"/>
       <c r="R9" s="146"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -6672,15 +6683,21 @@
       <c r="H10" s="14"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="5"/>
+      <c r="L10" s="153" t="s">
+        <v>169</v>
+      </c>
+      <c r="M10" s="154" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" s="153" t="s">
+        <v>78</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -6691,7 +6708,7 @@
       <c r="L11" s="31"/>
       <c r="M11" s="33"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
@@ -6709,7 +6726,7 @@
       <c r="Q12" s="148"/>
       <c r="R12" s="148"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>1</v>
       </c>
@@ -6759,7 +6776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>39</v>
       </c>
@@ -6809,7 +6826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
         <v>92</v>
       </c>
@@ -6836,7 +6853,7 @@
       <c r="Q15" s="149"/>
       <c r="R15" s="149"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>L16</f>
         <v>FTE-INDCOA</v>
@@ -6881,7 +6898,7 @@
       <c r="Q16" s="146"/>
       <c r="R16" s="146"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>L17</f>
         <v>FTE-INDGAS</v>
@@ -6924,7 +6941,7 @@
       <c r="Q17" s="146"/>
       <c r="R17" s="146"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>L18</f>
         <v>FTE-INDOIL</v>
@@ -6970,7 +6987,7 @@
       <c r="Q18" s="146"/>
       <c r="R18" s="146"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C19" t="str">
         <f>'EB1'!H$2</f>
         <v>KER</v>
@@ -7004,7 +7021,7 @@
       <c r="Q19" s="146"/>
       <c r="R19" s="146"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C20" t="str">
         <f>'EB1'!I$2</f>
         <v>LPG</v>
@@ -7040,7 +7057,7 @@
       <c r="Q20" s="146"/>
       <c r="R20" s="146"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C21" t="str">
         <f>'EB1'!J$2</f>
         <v>GSL</v>
@@ -7054,15 +7071,24 @@
       <c r="H21" s="90"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="L21" s="146" t="str">
+        <f>+B27</f>
+        <v>FTE-INDHFO</v>
+      </c>
+      <c r="M21" s="154" t="s">
+        <v>174</v>
+      </c>
+      <c r="N21" s="153" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="153" t="s">
+        <v>175</v>
+      </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C22" t="str">
         <f>'EB1'!K$2</f>
         <v>NAP</v>
@@ -7084,7 +7110,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C23" t="str">
         <f>'EB1'!L$2</f>
         <v>HFO</v>
@@ -7106,7 +7132,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C24" t="str">
         <f>'EB1'!M$2</f>
         <v>OPP</v>
@@ -7128,7 +7154,7 @@
       <c r="Q24" s="36"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>L19</f>
         <v>FTE-INDBIO</v>
@@ -7150,7 +7176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>L20</f>
         <v>FTE-INDELC</v>
@@ -7172,16 +7198,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="153" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" t="str">
+        <f>'EB1'!L$2</f>
+        <v>HFO</v>
+      </c>
+      <c r="D27" s="153" t="s">
+        <v>169</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="G27" s="93">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="121"/>
       <c r="C28" s="5"/>
       <c r="D28" s="121"/>
@@ -7190,7 +7227,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="121"/>
       <c r="C29" s="5"/>
       <c r="D29" s="121"/>
@@ -7199,7 +7236,7 @@
       <c r="G29" s="93"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="121"/>
       <c r="C30" s="5"/>
       <c r="D30" s="121"/>
@@ -7208,13 +7245,13 @@
       <c r="G30" s="93"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="53"/>
       <c r="C34" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="86"/>
       <c r="C35" s="1" t="s">
         <v>150</v>
@@ -7229,38 +7266,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:T28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" customWidth="1"/>
     <col min="11" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>75</v>
       </c>
@@ -7281,7 +7318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="str">
         <f>'EB1'!B7</f>
         <v>IND</v>
@@ -7318,7 +7355,7 @@
       <c r="S2" s="142"/>
       <c r="T2" s="142"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L3" s="143" t="s">
         <v>7</v>
       </c>
@@ -7347,7 +7384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="5" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" s="5" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7383,7 +7420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7412,7 +7449,7 @@
       <c r="S5" s="150"/>
       <c r="T5" s="150"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L6" s="148" t="s">
         <v>106</v>
       </c>
@@ -7434,274 +7471,262 @@
       <c r="S6" s="148"/>
       <c r="T6" s="148"/>
     </row>
-    <row r="7" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="G7" s="133" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L7" s="155"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="155" t="s">
+        <v>170</v>
+      </c>
+      <c r="O7" s="155" t="s">
+        <v>172</v>
+      </c>
+      <c r="P7" s="155" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+    </row>
+    <row r="8" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G8" s="133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+    <row r="9" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="134">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="134">
         <v>0.2</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="17"/>
-      <c r="L8" s="141" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="17"/>
+      <c r="L9" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="141"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-    </row>
-    <row r="9" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="M9" s="141"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E10" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="99" t="s">
+      <c r="F10" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G10" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H10" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I10" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="96" t="s">
+      <c r="J10" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="143" t="s">
+      <c r="L10" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="144" t="s">
+      <c r="M10" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="143" t="s">
+      <c r="N10" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="143" t="s">
+      <c r="O10" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="143" t="s">
+      <c r="P10" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="143" t="s">
+      <c r="Q10" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="143" t="s">
+      <c r="R10" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="143" t="s">
+      <c r="S10" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="143" t="s">
+      <c r="T10" s="143" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+    <row r="11" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G11" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I11" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J11" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L10" s="145" t="s">
+      <c r="L11" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="145" t="s">
+      <c r="M11" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="145" t="s">
+      <c r="N11" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="145" t="s">
+      <c r="O11" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="145" t="s">
+      <c r="P11" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="145" t="s">
+      <c r="Q11" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="145" t="s">
+      <c r="R11" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="S10" s="145" t="s">
+      <c r="S11" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="T10" s="145" t="s">
+      <c r="T11" s="145" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+    <row r="12" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16" t="str">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16" t="str">
         <f>E2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="16" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="145" t="s">
+      <c r="L12" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="145"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" t="str">
-        <f>N12</f>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f>N13</f>
         <v>IDM1ETOT</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C13" t="str">
         <f>Sector_Fuels!L5</f>
         <v>INDCOA</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D13" t="str">
         <f>$N$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="E12" s="123"/>
-      <c r="F12" s="132">
+      <c r="E13" s="123"/>
+      <c r="F13" s="132">
         <f>'EB1'!$D$7/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
         <v>0.18680048955254447</v>
       </c>
-      <c r="G12" s="135">
-        <f>IF(F12=0,20%,F12*(1+$G$8))</f>
+      <c r="G13" s="135">
+        <f>IF(F13=0,20%,F13*(1+$G$9))</f>
         <v>0.22416058746305337</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H13" s="91">
         <v>1</v>
       </c>
-      <c r="I12" s="91">
+      <c r="I13" s="91">
         <v>0.95</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J13" s="53">
         <v>30</v>
       </c>
-      <c r="L12" s="150" t="s">
+      <c r="L13" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146" t="str">
+      <c r="M13" s="146"/>
+      <c r="N13" s="146" t="str">
         <f>LEFT($B$2)&amp;'EB1'!$C$20&amp;$I$2&amp;'EB1'!V2</f>
         <v>IDM1ETOT</v>
       </c>
-      <c r="O12" s="151" t="str">
+      <c r="O13" s="151" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp; " Sector - "&amp;""&amp;$I$1&amp;" "&amp;'EB1'!$X$20&amp;" - "&amp;'EB1'!$V$3</f>
         <v>Demand Technologies Industry Sector - Existing Demand 1 - Total</v>
       </c>
-      <c r="P12" s="146" t="str">
+      <c r="P13" s="146" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Q12" s="146" t="str">
+      <c r="Q13" s="146" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C13" t="str">
+      <c r="R13" s="146"/>
+      <c r="S13" s="146"/>
+      <c r="T13" s="146"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
         <f>Sector_Fuels!L6</f>
         <v>INDGAS</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F14" s="132">
         <f>'EB1'!$E$7/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
         <v>0.26888446182878689</v>
       </c>
-      <c r="G13" s="135">
-        <f>IF(F13=0,20%,F13*(1+$G$8))</f>
+      <c r="G14" s="135">
+        <f>IF(F14=0,20%,F14*(1+$G$9))</f>
         <v>0.32266135419454428</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" t="str">
-        <f>Sector_Fuels!L7</f>
-        <v>INDOIL</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="132">
-        <f>SUM('EB1'!$G$7:$M$7)/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
-        <v>0.15262646600475283</v>
-      </c>
-      <c r="G14" s="135">
-        <f>IF(F14=0,20%,F14*(1+$G$8))</f>
-        <v>0.1831517592057034</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="7"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -7712,20 +7737,21 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" t="str">
-        <f>Sector_Fuels!L8</f>
-        <v>INDBIO</v>
-      </c>
+        <f>Sector_Fuels!L7</f>
+        <v>INDOIL</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="22"/>
       <c r="F15" s="132">
-        <f>'EB1'!O$7/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
-        <v>8.1997581809253622E-2</v>
+        <f>SUM('EB1'!$G$7:$M$7)/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
+        <v>0.15262646600475283</v>
       </c>
       <c r="G15" s="135">
-        <f>IF(F15=0,20%,F15*(1+$G$8))</f>
-        <v>9.8397098171104341E-2</v>
+        <f>IF(F15=0,20%,F15*(1+$G$9))</f>
+        <v>0.1831517592057034</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -7740,36 +7766,47 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
       <c r="C16" t="str">
-        <f>Sector_Fuels!L9</f>
-        <v>INDELC</v>
-      </c>
+        <f>Sector_Fuels!L8</f>
+        <v>INDBIO</v>
+      </c>
+      <c r="E16" s="22"/>
       <c r="F16" s="132">
-        <f>'EB1'!U$7/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
-        <v>0.30969100080466228</v>
+        <f>'EB1'!O$7/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
+        <v>8.1997581809253622E-2</v>
       </c>
       <c r="G16" s="135">
-        <f>IF(F16=0,20%,F16*(1+$G$8))</f>
-        <v>0.37162920096559471</v>
-      </c>
+        <f>IF(F16=0,20%,F16*(1+$G$9))</f>
+        <v>9.8397098171104341E-2</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="7"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="O16" s="25"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="5"/>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f>Sector_Fuels!L9</f>
+        <v>INDELC</v>
+      </c>
+      <c r="F17" s="132">
+        <f>'EB1'!U$7/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
+        <v>0.30969100080466228</v>
+      </c>
+      <c r="G17" s="135">
+        <f>IF(F17=0,20%,F17*(1+$G$9))</f>
+        <v>0.37162920096559471</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -7780,9 +7817,19 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="153" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -7793,7 +7840,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="L19" s="5"/>
@@ -7806,9 +7853,9 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="H20" s="10"/>
-      <c r="I20" s="131"/>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -7819,7 +7866,12 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G21" s="125">
+        <f>+SUM(G13:G18)</f>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="H21" s="10"/>
       <c r="I21" s="131"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -7831,36 +7883,48 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="53"/>
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I22" s="131"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="53"/>
+      <c r="C23" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I22" s="131"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="86"/>
-      <c r="C23" s="1" t="s">
+      <c r="I23" s="131"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="86"/>
+      <c r="C24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="131"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I24" s="131"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I25" s="131"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D27" s="5"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="K28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7870,31 +7934,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>75</v>
       </c>
@@ -7911,7 +7975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>85</v>
       </c>
@@ -7926,7 +7990,7 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
@@ -7937,7 +8001,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
@@ -7963,7 +8027,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>83</v>
       </c>
@@ -7985,7 +8049,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>92</v>
       </c>
@@ -8002,7 +8066,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
@@ -8031,7 +8095,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>119</v>
       </c>
@@ -8046,7 +8110,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
       <c r="D11" s="126"/>
@@ -8066,7 +8130,7 @@
         <v>0.28999999999999992</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="126"/>
@@ -8084,22 +8148,22 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E15" s="34"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="10"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E18" s="10"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="53"/>
       <c r="C24" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="86"/>
       <c r="C25" s="1" t="s">
         <v>150</v>
@@ -8112,19 +8176,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
         <v>156</v>
       </c>
@@ -8136,7 +8200,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="2:9" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" s="5" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -8144,7 +8208,7 @@
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
         <v>141</v>
       </c>
@@ -8152,7 +8216,7 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="s">
         <v>0</v>
       </c>
@@ -8168,11 +8232,13 @@
         <f>Sector_Fuels!$L$7</f>
         <v>INDOIL</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="46" t="s">
+        <v>169</v>
+      </c>
       <c r="G6" s="46"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>92</v>
       </c>
@@ -8185,11 +8251,13 @@
       <c r="E7" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="128"/>
+      <c r="F7" s="128" t="s">
+        <v>148</v>
+      </c>
       <c r="G7" s="128"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="str">
         <f>DemTechs_IND!N6</f>
         <v>INDCO2</v>
@@ -8203,21 +8271,37 @@
       <c r="E8" s="91">
         <v>76.400000000000006</v>
       </c>
-      <c r="F8" s="129"/>
+      <c r="F8" s="129">
+        <v>70</v>
+      </c>
       <c r="G8" s="129"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="152" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9" s="36">
+        <v>35</v>
+      </c>
       <c r="G9" s="36"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="53"/>
       <c r="C23" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="86"/>
       <c r="C24" s="1" t="s">
         <v>150</v>

--- a/VT_REG1_IND_V09.xlsx
+++ b/VT_REG1_IND_V09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4962FEE4-E307-4223-8C97-663859459110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B64CFF-02A4-4271-9C5F-CD8CBAAA5D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3850,11 +3850,6 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="10">
-          <cell r="D10">
-            <v>-37.464700000000001</v>
-          </cell>
-        </row>
         <row r="16">
           <cell r="D16">
             <v>231.76075</v>
@@ -7270,7 +7265,7 @@
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7867,10 +7862,7 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G21" s="125">
-        <f>+SUM(G13:G18)</f>
-        <v>1.2500000000000002</v>
-      </c>
+      <c r="G21" s="125"/>
       <c r="H21" s="10"/>
       <c r="I21" s="131"/>
       <c r="L21" s="5"/>

--- a/VT_REG1_IND_V09.xlsx
+++ b/VT_REG1_IND_V09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B64CFF-02A4-4271-9C5F-CD8CBAAA5D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E2D07A-9C39-40C7-ACD8-1C4B95AD9EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -3850,6 +3850,11 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
+        <row r="10">
+          <cell r="D10">
+            <v>-37.464700000000001</v>
+          </cell>
+        </row>
         <row r="16">
           <cell r="D16">
             <v>231.76075</v>
@@ -6385,8 +6390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7264,8 +7269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG1_IND_V09.xlsx
+++ b/VT_REG1_IND_V09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E2D07A-9C39-40C7-ACD8-1C4B95AD9EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1C5D9C-7846-40AF-80C3-D63CB44C20B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -3850,11 +3850,6 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="10">
-          <cell r="D10">
-            <v>-37.464700000000001</v>
-          </cell>
-        </row>
         <row r="16">
           <cell r="D16">
             <v>231.76075</v>
@@ -6391,7 +6386,7 @@
   <dimension ref="B1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8177,7 +8172,7 @@
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
